--- a/data/unemployment.xlsx
+++ b/data/unemployment.xlsx
@@ -1,73 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B95BFE-7443-466A-B289-E419F1F83AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="13758" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,29 +54,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -374,539 +401,651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.41796875" customWidth="1"/>
+    <col width="10.41796875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
         <v>45658</v>
       </c>
-      <c r="B2">
+      <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>8.108108108108091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4">
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
         <v>45627</v>
       </c>
-      <c r="B3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C3">
-        <v>7.8947368421052655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4">
+      <c r="B4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
         <v>45597</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="C4">
-        <v>13.513513513513509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4">
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
         <v>45566</v>
       </c>
-      <c r="B5" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C5">
-        <v>5.1282051282051322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4">
+      <c r="B6" s="2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
         <v>45536</v>
       </c>
-      <c r="B6" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C6">
-        <v>7.8947368421052655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4">
+      <c r="B7" s="2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
         <v>45505</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="C7">
-        <v>13.513513513513509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4">
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
         <v>45474</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="C8">
-        <v>19.999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4">
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
         <v>45444</v>
       </c>
-      <c r="B9" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C9">
-        <v>13.888888888888884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4">
+      <c r="B10" s="2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C10">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
         <v>45413</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>11.111111111111116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4">
+      <c r="C11">
+        <f>(B11/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
         <v>45383</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="C11">
-        <v>14.705882352941169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4">
+      <c r="C12">
+        <f>(B12/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
         <v>45352</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="C12">
-        <v>8.333333333333325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4">
+      <c r="C13">
+        <f>(B13/B25-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
         <v>45323</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="C13">
-        <v>8.333333333333325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4">
+      <c r="C14">
+        <f>(B14/B26-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
         <v>45292</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="C14">
-        <v>5.7142857142857162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4">
+      <c r="C15">
+        <f>(B15/B27-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
         <v>45261</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2" t="n">
         <v>3.8</v>
       </c>
-      <c r="C15">
-        <v>8.5714285714285623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4">
+      <c r="C16">
+        <f>(B16/B28-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
         <v>45231</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="C16">
-        <v>2.7777777777777901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4">
+      <c r="C17">
+        <f>(B17/B29-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
         <v>45200</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="C17">
-        <v>8.333333333333325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4">
+      <c r="C18">
+        <f>(B18/B30-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
         <v>45170</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2" t="n">
         <v>3.8</v>
       </c>
-      <c r="C18">
-        <v>8.5714285714285623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="4">
+      <c r="C19">
+        <f>(B19/B31-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
         <v>45139</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="C19">
-        <v>2.7777777777777901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="4">
+      <c r="C20">
+        <f>(B20/B32-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
         <v>45108</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="4">
+      <c r="C21">
+        <f>(B21/B33-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
         <v>45078</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="4">
+      <c r="C22">
+        <f>(B22/B34-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
         <v>45047</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="4">
+      <c r="C23">
+        <f>(B23/B35-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
         <v>45017</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2" t="n">
         <v>3.4</v>
       </c>
-      <c r="C23">
-        <v>-8.1081081081081141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="4">
+      <c r="C24">
+        <f>(B24/B36-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
         <v>44986</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="4">
+      <c r="C25">
+        <f>(B25/B37-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
         <v>44958</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C25">
-        <v>-5.2631578947368363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="4">
+      <c r="C26">
+        <f>(B26/B38-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
         <v>44927</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="C26">
-        <v>-12.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="4">
+      <c r="C27">
+        <f>(B27/B39-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
         <v>44896</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="C27">
-        <v>-10.256410256410254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="4">
+      <c r="C28">
+        <f>(B28/B40-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
         <v>44866</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C28">
-        <v>-14.28571428571429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="4">
+      <c r="C29">
+        <f>(B29/B41-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
         <v>44835</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C29">
-        <v>-19.999999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="4">
+      <c r="C30">
+        <f>(B30/B42-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
         <v>44805</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="C30">
-        <v>-27.083333333333325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="4">
+      <c r="C31">
+        <f>(B31/B43-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
         <v>44774</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C31">
-        <v>-30.76923076923077</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="4">
+      <c r="C32">
+        <f>(B32/B44-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
         <v>44743</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="C32">
-        <v>-35.185185185185183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="4">
+      <c r="C33">
+        <f>(B33/B45-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
         <v>44713</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C33">
-        <v>-38.983050847457633</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="4">
+      <c r="C34">
+        <f>(B34/B46-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
         <v>44682</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B35" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C34">
-        <v>-37.931034482758619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="4">
+      <c r="C35">
+        <f>(B35/B47-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
         <v>44652</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B36" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="C35">
-        <v>-39.344262295081954</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="4">
+      <c r="C36">
+        <f>(B36/B48-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
         <v>44621</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B37" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C36">
-        <v>-40.983606557377037</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="4">
+      <c r="C37">
+        <f>(B37/B49-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
         <v>44593</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="2" t="n">
         <v>3.8</v>
       </c>
-      <c r="C37">
-        <v>-38.709677419354847</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="4">
+      <c r="C38">
+        <f>(B38/B50-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
         <v>44562</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B39" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C38">
-        <v>-36.507936507936513</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="4">
+      <c r="C39">
+        <f>(B39/B51-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
         <v>44531</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B40" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="C39">
-        <v>-41.791044776119399</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="4">
+      <c r="C40">
+        <f>(B40/B52-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
         <v>44501</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B41" s="2" t="n">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="4">
+      <c r="C41">
+        <f>(B41/B53-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
         <v>44470</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B42" s="2" t="n">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="4">
+      <c r="C42">
+        <f>(B42/B54-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
         <v>44440</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B43" s="2" t="n">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="4">
+      <c r="C43">
+        <f>(B43/B55-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
         <v>44409</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B44" s="2" t="n">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="4">
+      <c r="C44">
+        <f>(B44/B56-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
         <v>44378</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B45" s="2" t="n">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="4">
+      <c r="C45">
+        <f>(B45/B57-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
         <v>44348</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B46" s="2" t="n">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="4">
+      <c r="C46">
+        <f>(B46/B58-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n">
         <v>44317</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="2" t="n">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="4">
+      <c r="C47">
+        <f>(B47/B59-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
         <v>44287</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48" s="2" t="n">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="4">
+      <c r="C48">
+        <f>(B48/B60-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n">
         <v>44256</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B49" s="2" t="n">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="4">
+      <c r="C49">
+        <f>(B49/B61-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
         <v>44228</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B50" s="2" t="n">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="4">
+      <c r="C50">
+        <f>(B50/B62-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
         <v>44197</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B51" s="2" t="n">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="4">
+      <c r="C51">
+        <f>(B51/B63-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="2" t="n">
         <v>6.7</v>
+      </c>
+      <c r="C52">
+        <f>(B52/B64-1)*100</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/unemployment.xlsx
+++ b/data/unemployment.xlsx
@@ -406,7 +406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,23 +437,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>4.2</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -462,10 +464,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -474,10 +476,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>4.2</v>
+        <v>45627</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.1</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -486,10 +488,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -498,7 +500,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>4.1</v>
@@ -510,10 +512,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -522,7 +524,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>4.2</v>
@@ -534,10 +536,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -546,10 +548,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -558,10 +560,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -570,7 +572,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>3.9</v>
@@ -582,7 +584,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>3.9</v>
@@ -594,10 +596,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -606,10 +608,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -618,10 +620,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -630,10 +632,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -642,10 +644,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -654,10 +656,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -666,10 +668,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -678,10 +680,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -690,7 +692,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>3.6</v>
@@ -702,10 +704,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -714,10 +716,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -726,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>3.6</v>
@@ -738,10 +740,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -750,7 +752,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>3.5</v>
@@ -762,10 +764,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -774,7 +776,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>3.6</v>
@@ -786,10 +788,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -798,10 +800,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -810,10 +812,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -822,10 +824,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -834,7 +836,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>3.6</v>
@@ -846,10 +848,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -858,10 +860,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -870,10 +872,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -882,10 +884,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -894,10 +896,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -906,10 +908,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -918,10 +920,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -930,10 +932,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -942,10 +944,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -954,10 +956,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -966,10 +968,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -978,10 +980,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -990,10 +992,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1002,7 +1004,7 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>6.1</v>
@@ -1014,10 +1016,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1026,10 +1028,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1038,13 +1040,25 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C53">
+        <f>(B53/B65-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/unemployment.xlsx
+++ b/data/unemployment.xlsx
@@ -406,7 +406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,544 +437,634 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>45748</v>
       </c>
       <c r="B3" t="n">
         <v>4.2</v>
       </c>
-      <c r="C3" t="n">
-        <v>7.69</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>+5.0%</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-01</t>
-        </is>
+      <c r="A4" s="4" t="n">
+        <v>45748</v>
       </c>
       <c r="B4" t="n">
         <v>4.2</v>
       </c>
-      <c r="C4" t="n">
-        <v>7.69</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+7.7%</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45689</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.13</v>
+        <v>4.2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>+7.7%</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.109999999999999</v>
+        <v>4.1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>+5.1%</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.89</v>
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>+8.1%</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>13.51</v>
+        <v>45627</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>+7.9%</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.13</v>
+        <v>4.2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>+13.5%</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="C10" t="n">
-        <v>7.89</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>+5.1%</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13.51</v>
+        <v>4.1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>+7.9%</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="C12" t="n">
-        <v>20</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>+13.5%</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>13.89</v>
+        <v>4.2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>+20.0%</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11.11</v>
+        <v>4.1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>+13.9%</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14.71</v>
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>+11.1%</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="C16" t="n">
-        <v>8.33</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>+14.7%</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="C17" t="n">
-        <v>8.33</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>+8.3%</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.71</v>
+        <v>3.9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>+8.3%</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8.57</v>
+        <v>3.7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>+5.7%</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.78</v>
+        <v>3.8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>+8.6%</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8.33</v>
+        <v>3.7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>+2.8%</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8.57</v>
+        <v>3.9</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>+8.3%</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.78</v>
+        <v>3.8</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>+8.6%</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
+        <v>3.7</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>+2.8%</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-8.109999999999999</v>
+        <v>3.6</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
+        <v>3.4</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-8.1%</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C29" t="n">
-        <v>-5.26</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-12.5</v>
+        <v>3.6</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-5.3%</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="C31" t="n">
-        <v>-10.26</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-12.5%</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-14.29</v>
+        <v>3.5</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-10.3%</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C33" t="n">
-        <v>-20</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-14.3%</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-27.08</v>
+        <v>3.6</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-20.0%</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-30.77</v>
+        <v>3.5</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-27.1%</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-35.19</v>
+        <v>3.6</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-30.8%</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-38.98</v>
+        <v>3.5</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-35.2%</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="C38" t="n">
-        <v>-37.93</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-39.0%</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-39.34</v>
+        <v>3.6</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-37.9%</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-40.98</v>
+        <v>3.7</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-39.3%</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-38.71</v>
+        <v>3.6</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-41.0%</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-36.51</v>
+        <v>3.8</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-38.7%</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-41.79</v>
+        <v>4</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>-36.5%</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>3.9</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-41.8%</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>6.1</v>
@@ -983,30 +1073,39 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B56" s="2" t="n">
         <v>6.7</v>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/unemployment.xlsx
+++ b/data/unemployment.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,11 +438,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -451,175 +451,177 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>45748</v>
-      </c>
       <c r="B4" t="n">
         <v>4.2</v>
       </c>
       <c r="C4" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>4.2</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C6" s="5" t="n">
         <v>7.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>45689</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>5.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>8.1</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>4.2</v>
+        <v>45627</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.1</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>5.1</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>4.1</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>4.2</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>13.9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.1</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>14.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>3.9</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.300000000000001</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>3.9</v>
@@ -630,87 +632,87 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>5.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>8.300000000000001</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>0</v>
@@ -718,7 +720,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>3.6</v>
@@ -729,266 +731,268 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-8.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>3.6</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>-12.5</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>3.5</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>-10.3</v>
+        <v>-12.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>-14.3</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>3.6</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>-20</v>
+        <v>-14.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-27.1</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-30.8</v>
+        <v>-27.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>-35.2</v>
+        <v>-30.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>-39</v>
+        <v>-35.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>3.6</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>-37.9</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>-39.3</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-41</v>
+        <v>-39.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-38.7</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>-36.5</v>
+        <v>-38.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>-41.8</v>
+        <v>-36.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>3.9</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>-41.8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>6.1</v>
@@ -997,30 +1001,39 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B57" s="2" t="n">
         <v>6.7</v>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/unemployment.xlsx
+++ b/data/unemployment.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,24 +438,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -464,175 +464,177 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45748</v>
-      </c>
       <c r="B5" t="n">
         <v>4.2</v>
       </c>
       <c r="C5" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>4.2</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C7" s="5" t="n">
         <v>7.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>45689</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>5.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.1</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>4.2</v>
+        <v>45627</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.1</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>13.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.1</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>4.1</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>13.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>4.2</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>11.1</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>14.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>3.9</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.300000000000001</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>3.9</v>
@@ -643,87 +645,87 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.300000000000001</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>0</v>
@@ -731,7 +733,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>3.6</v>
@@ -742,266 +744,268 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>3.6</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>-5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>-12.5</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>3.5</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>-10.3</v>
+        <v>-12.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>-14.3</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>3.6</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-20</v>
+        <v>-14.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-27.1</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>-30.8</v>
+        <v>-27.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>-35.2</v>
+        <v>-30.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>-39</v>
+        <v>-35.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>3.6</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>-37.9</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-39.3</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-41</v>
+        <v>-39.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>-38.7</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>-36.5</v>
+        <v>-38.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>-41.8</v>
+        <v>-36.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>3.9</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>-41.8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>6.1</v>
@@ -1010,30 +1014,39 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B58" s="2" t="n">
         <v>6.7</v>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
